--- a/SuppXLS/Scen_PV_CAP_BND.xlsx
+++ b/SuppXLS/Scen_PV_CAP_BND.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\ELAND-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9828780-55A7-45D8-AEE0-AB76ED688D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583D32A-8B78-46A5-8592-F35CF9CABF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -250,9 +261,9 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="2" xr:uid="{EC0AC33C-B7F0-448A-AADD-A58864234F2E}"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{BA96B4E3-7EF0-4F94-8893-B1418C31CECC}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
